--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="AK8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>7784000</v>
+        <v>8284000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>39946000</v>
+        <v>50646000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>47730000</v>
+        <v>58930000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>36730000</v>
+        <v>41430000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>11000000</v>
+        <v>17500000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>39730000</v>
+        <v>44930000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3500000</v>
+        <v>25800000</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>8284000</v>
+        <v>37942000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>50646000</v>
+        <v>112988000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>58930000</v>
+        <v>150930000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>41430000</v>
+        <v>128230000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>17500000</v>
+        <v>22700000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>44930000</v>
+        <v>154030000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>37942000</v>
+        <v>58922000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>112988000</v>
+        <v>120358000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>150930000</v>
+        <v>179280000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>128230000</v>
+        <v>153580000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>22700000</v>
+        <v>25700000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>154030000</v>
+        <v>179380000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>120358000</v>
+        <v>129358000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>179280000</v>
+        <v>188280000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>25700000</v>
+        <v>34700000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>58922000</v>
+        <v>63522000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>129358000</v>
+        <v>126758000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>188280000</v>
+        <v>190280000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>153580000</v>
+        <v>155580000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>179380000</v>
+        <v>181380000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_THANG_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_THANG_CAN_THO.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>63522000</v>
+        <v>64467000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>126758000</v>
+        <v>160813000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>190280000</v>
+        <v>225280000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>155580000</v>
+        <v>190580000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>181380000</v>
+        <v>216380000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
